--- a/resources/Part_3_Statistics/S15_L92/2.12.Correlation-exercise.xlsx
+++ b/resources/Part_3_Statistics/S15_L92/2.12.Correlation-exercise.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iliya\Desktop\Statistics Course\Filming\Final excel\Section 2 - Descriptive statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\GitRepos\StatisticsBAandDS\DataScienceBootcamp\resources\Part_3_Statistics\S15_L92\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10068"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10065"/>
   </bookViews>
   <sheets>
     <sheet name="Correlation" sheetId="13" r:id="rId1"/>
     <sheet name="cov" sheetId="10" state="hidden" r:id="rId2"/>
     <sheet name="Covariance2" sheetId="11" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Housing data</t>
   </si>
@@ -88,16 +88,22 @@
   <si>
     <t>Comment on the strength of the correlation between the two datasets</t>
   </si>
+  <si>
+    <t>StdDev</t>
+  </si>
+  <si>
+    <t>very close to 1: the variables are strongly correlated.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0_);\-\ #,##0_)"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00_);\-\ #,##0.00_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0_);\-\ #,##0_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00_);\-\ #,##0.00_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -194,7 +200,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -203,22 +209,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -228,14 +234,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -254,7 +260,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -415,6 +421,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -440,7 +447,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -478,7 +485,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="267317632"/>
@@ -538,6 +545,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -563,7 +571,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -601,7 +609,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="267316976"/>
@@ -637,7 +645,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -651,7 +659,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -812,6 +820,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -837,7 +846,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -875,7 +884,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="267317632"/>
@@ -935,6 +944,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -960,7 +970,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -998,7 +1008,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="267316976"/>
@@ -1034,7 +1044,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1048,7 +1058,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1234,7 +1244,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1272,7 +1282,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="267317632"/>
@@ -1357,7 +1367,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1395,7 +1405,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="267316976"/>
@@ -1431,7 +1441,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3534,26 +3544,28 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="18.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="4.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="4.21875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="4.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -3561,7 +3573,7 @@
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
     </row>
-    <row r="2" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
@@ -3569,13 +3581,13 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -3586,7 +3598,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
@@ -3597,7 +3609,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
@@ -3608,25 +3620,25 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
@@ -3640,7 +3652,7 @@
       <c r="J10" s="5"/>
       <c r="O10" s="25"/>
     </row>
-    <row r="11" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C11" s="19">
         <v>344</v>
       </c>
@@ -3655,7 +3667,7 @@
       <c r="J11" s="5"/>
       <c r="M11" s="21"/>
     </row>
-    <row r="12" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C12" s="19">
         <v>383</v>
       </c>
@@ -3711,7 +3723,7 @@
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
         <v>2</v>
       </c>
@@ -3732,10 +3744,18 @@
       </c>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="2:8" ht="12" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="8">
+        <f>_xlfn.STDEV.S(C11:C15)</f>
+        <v>154.51310624021508</v>
+      </c>
+      <c r="D18" s="8">
+        <f>_xlfn.STDEV.S(D11:D15)</f>
+        <v>145.9479359223692</v>
+      </c>
       <c r="F18" s="5" t="s">
         <v>5</v>
       </c>
@@ -3745,7 +3765,7 @@
       </c>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3758,19 +3778,25 @@
       </c>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="24"/>
+      <c r="G20" s="24">
+        <f>G19/(C18*D18)</f>
+        <v>0.93812571333175854</v>
+      </c>
       <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+      <c r="I20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -3794,29 +3820,29 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="18.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -3887,7 +3913,7 @@
         <v>-4142000</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>2</v>
       </c>
@@ -3907,7 +3933,7 @@
         <v>133965000</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="17"/>
       <c r="D12" s="4"/>
@@ -3918,7 +3944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3930,14 +3956,14 @@
         <v>33491250</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="F14" s="5"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="16" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F16" s="5"/>
       <c r="G16" s="9"/>
     </row>
@@ -3954,29 +3980,29 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="18.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -4047,7 +4073,7 @@
         <v>-4142000</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>2</v>
       </c>
@@ -4067,7 +4093,7 @@
         <v>133965000</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="17"/>
       <c r="D12" s="4"/>
@@ -4078,7 +4104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -4090,14 +4116,14 @@
         <v>33491250</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="F14" s="5"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="16" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F16" s="5"/>
       <c r="G16" s="9"/>
     </row>
